--- a/CA_data/LC/Epct1/2021-22/05+CALAVERAS.xlsx
+++ b/CA_data/LC/Epct1/2021-22/05+CALAVERAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>Calaveras CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Mandarin (Putonghua)</t>
+  </si>
+  <si>
+    <t>Dutch</t>
   </si>
   <si>
     <t>Farsi (Persian)</t>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,19 +630,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -647,16 +650,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -664,16 +667,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -681,16 +684,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -698,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -712,16 +715,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -729,16 +732,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -746,13 +749,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -760,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -774,16 +777,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -791,13 +794,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -805,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -822,16 +825,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -839,16 +842,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -856,13 +859,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -870,13 +873,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -884,13 +887,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -898,13 +901,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -912,13 +915,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -926,13 +929,13 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -940,13 +943,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -954,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -962,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -970,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -978,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -986,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1002,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1010,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1018,30 +1021,18 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
       <c r="F33" t="s">
         <v>72</v>
       </c>
@@ -1064,6 +1055,26 @@
       </c>
       <c r="F34" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
